--- a/Code/Results/Cases/Case_9_28/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_9_28/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.467552484795817</v>
+        <v>2.469184526325989</v>
       </c>
       <c r="C2">
-        <v>0.6521875225020608</v>
+        <v>0.6664403410872239</v>
       </c>
       <c r="D2">
-        <v>0.1693846887606156</v>
+        <v>0.1719721549046795</v>
       </c>
       <c r="E2">
-        <v>0.1071596578309695</v>
+        <v>0.1075808894508761</v>
       </c>
       <c r="F2">
-        <v>0.5381019557568436</v>
+        <v>0.524158130676625</v>
       </c>
       <c r="G2">
-        <v>0.2790510770662777</v>
+        <v>0.2496876636755729</v>
       </c>
       <c r="H2">
-        <v>9.630921951653271E-05</v>
+        <v>7.20707100214657E-05</v>
       </c>
       <c r="I2">
-        <v>0.0004470366052289343</v>
+        <v>0.0005973593919543774</v>
       </c>
       <c r="J2">
-        <v>0.2602178406685027</v>
+        <v>0.2894764474887666</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.1026804290624916</v>
+        <v>0.1115596760024928</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.04161840762576574</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.1022568926161291</v>
       </c>
       <c r="O2">
-        <v>0.7086074034651872</v>
+        <v>0</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>1.084951577652049</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0.7158780288774693</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>1.045848395168605</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.151920537818569</v>
+        <v>2.15574986587194</v>
       </c>
       <c r="C3">
-        <v>0.5797336673944358</v>
+        <v>0.5837129745438858</v>
       </c>
       <c r="D3">
-        <v>0.15407880027864</v>
+        <v>0.1563307787179724</v>
       </c>
       <c r="E3">
-        <v>0.09985563625059868</v>
+        <v>0.1005289350112442</v>
       </c>
       <c r="F3">
-        <v>0.5200238123560368</v>
+        <v>0.508586869269017</v>
       </c>
       <c r="G3">
-        <v>0.2703522492093526</v>
+        <v>0.2433950593627472</v>
       </c>
       <c r="H3">
-        <v>0.0005346021328613837</v>
+        <v>0.0004493801836049638</v>
       </c>
       <c r="I3">
-        <v>0.0005294059849392241</v>
+        <v>0.0005154688351929337</v>
       </c>
       <c r="J3">
-        <v>0.2610180600630585</v>
+        <v>0.2889988808345834</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.0974273716670524</v>
+        <v>0.1175003195381663</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.04507136863959671</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.09749770132513191</v>
       </c>
       <c r="O3">
-        <v>0.6180618199080001</v>
+        <v>0</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>1.067878204376143</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0.6231490927521577</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>1.034494170707802</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.957661442053507</v>
+        <v>1.962732194847547</v>
       </c>
       <c r="C4">
-        <v>0.5356175563520367</v>
+        <v>0.5335110907257103</v>
       </c>
       <c r="D4">
-        <v>0.144735327668613</v>
+        <v>0.1468016247393535</v>
       </c>
       <c r="E4">
-        <v>0.09536421352971658</v>
+        <v>0.09619605170717449</v>
       </c>
       <c r="F4">
-        <v>0.5094518530221137</v>
+        <v>0.4994323269661649</v>
       </c>
       <c r="G4">
-        <v>0.2654338562661636</v>
+        <v>0.2399399740023256</v>
       </c>
       <c r="H4">
-        <v>0.0009978199531887055</v>
+        <v>0.0008577410795199691</v>
       </c>
       <c r="I4">
-        <v>0.0007711374510952496</v>
+        <v>0.0006231490400567807</v>
       </c>
       <c r="J4">
-        <v>0.2618026445193067</v>
+        <v>0.2888149903151245</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.09415927117055745</v>
+        <v>0.1214113618272137</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.04767232041945291</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.09453159677467227</v>
       </c>
       <c r="O4">
-        <v>0.5625184544000987</v>
+        <v>0</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1.058897171682247</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0.56629281736096</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>1.028653950707096</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.87817521538156</v>
+        <v>1.883733482725546</v>
       </c>
       <c r="C5">
-        <v>0.5189021822916118</v>
+        <v>0.5143407654752821</v>
       </c>
       <c r="D5">
-        <v>0.141026487446112</v>
+        <v>0.1430188505703143</v>
       </c>
       <c r="E5">
-        <v>0.09352888878370891</v>
+        <v>0.09442637549013355</v>
       </c>
       <c r="F5">
-        <v>0.504750797644796</v>
+        <v>0.4953048757182898</v>
       </c>
       <c r="G5">
-        <v>0.2630974152019121</v>
+        <v>0.2382242187040617</v>
       </c>
       <c r="H5">
-        <v>0.001233726280654435</v>
+        <v>0.001067077227249635</v>
       </c>
       <c r="I5">
-        <v>0.0009838632375571699</v>
+        <v>0.0007855350780330284</v>
       </c>
       <c r="J5">
-        <v>0.2619638843588987</v>
+        <v>0.2885406482439166</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.09277855237411003</v>
+        <v>0.1229313372102467</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.04882357025898565</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.09327530959177111</v>
       </c>
       <c r="O5">
-        <v>0.5401830121390674</v>
+        <v>0</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1.054199166625324</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0.5434186039595872</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>1.025219669667067</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.864724347745522</v>
+        <v>1.87036996919943</v>
       </c>
       <c r="C6">
-        <v>0.5175740642407902</v>
+        <v>0.5125707822251968</v>
       </c>
       <c r="D6">
-        <v>0.1405169309490049</v>
+        <v>0.1424931336338631</v>
       </c>
       <c r="E6">
-        <v>0.09322068571579578</v>
+        <v>0.09412918095142686</v>
       </c>
       <c r="F6">
-        <v>0.5033425158058265</v>
+        <v>0.4940218924284778</v>
       </c>
       <c r="G6">
-        <v>0.2621866982073797</v>
+        <v>0.2374513485702323</v>
       </c>
       <c r="H6">
-        <v>0.001276555649022293</v>
+        <v>0.001105160112197967</v>
       </c>
       <c r="I6">
-        <v>0.001113286526679858</v>
+        <v>0.000922508308388359</v>
       </c>
       <c r="J6">
-        <v>0.2617141741137132</v>
+        <v>0.2882207574253783</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.09250253287489585</v>
+        <v>0.1230182811105287</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.04898756137602733</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.09302190811975208</v>
       </c>
       <c r="O6">
-        <v>0.5368302924523363</v>
+        <v>0</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>1.051731672528916</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0.5399629877486589</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>1.023048374688983</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.955919909339912</v>
+        <v>1.960969593270477</v>
       </c>
       <c r="C7">
-        <v>0.5393416889515379</v>
+        <v>0.5368465078699671</v>
       </c>
       <c r="D7">
-        <v>0.1449739575296292</v>
+        <v>0.1472185135292676</v>
       </c>
       <c r="E7">
-        <v>0.09533079160278035</v>
+        <v>0.09618819066935558</v>
       </c>
       <c r="F7">
-        <v>0.5076547812166083</v>
+        <v>0.4968446589225621</v>
       </c>
       <c r="G7">
-        <v>0.2639587359192461</v>
+        <v>0.2406823815066375</v>
       </c>
       <c r="H7">
-        <v>0.001002959659162639</v>
+        <v>0.00086418333456173</v>
       </c>
       <c r="I7">
-        <v>0.001007956557133483</v>
+        <v>0.0009024941870316994</v>
       </c>
       <c r="J7">
-        <v>0.2610394809179155</v>
+        <v>0.2846202783187053</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.09401532418458558</v>
+        <v>0.1208397149549594</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.04754477015910585</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.09435638713572203</v>
       </c>
       <c r="O7">
-        <v>0.563190624407973</v>
+        <v>0</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>1.054170604627046</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0.5669461500647159</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>1.021789492216143</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.357916030495062</v>
+        <v>2.360193663251891</v>
       </c>
       <c r="C8">
-        <v>0.6324090027812019</v>
+        <v>0.6421095940777946</v>
       </c>
       <c r="D8">
-        <v>0.1644792734173848</v>
+        <v>0.1675736330293915</v>
       </c>
       <c r="E8">
-        <v>0.104632096378289</v>
+        <v>0.105224933525367</v>
       </c>
       <c r="F8">
-        <v>0.5294711485201304</v>
+        <v>0.5136172556201188</v>
       </c>
       <c r="G8">
-        <v>0.2740575830081085</v>
+        <v>0.2527348765998383</v>
       </c>
       <c r="H8">
-        <v>0.000206854980843163</v>
+        <v>0.0001676974522513142</v>
       </c>
       <c r="I8">
-        <v>0.0007135904178117158</v>
+        <v>0.0008672196636156926</v>
       </c>
       <c r="J8">
-        <v>0.2594276476178834</v>
+        <v>0.2771765305042635</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.1007136382700295</v>
+        <v>0.1126486621314555</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.04233749502997819</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.1003450013957981</v>
       </c>
       <c r="O8">
-        <v>0.6786710089625814</v>
+        <v>0</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>1.072606423315975</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0.685219636062449</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>1.028001123902811</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.144269033076625</v>
+        <v>3.140278217165189</v>
       </c>
       <c r="C9">
-        <v>0.8110056002661281</v>
+        <v>0.8474379340674147</v>
       </c>
       <c r="D9">
-        <v>0.202696395772378</v>
+        <v>0.2069402177002218</v>
       </c>
       <c r="E9">
-        <v>0.1228619706073637</v>
+        <v>0.1228731255167723</v>
       </c>
       <c r="F9">
-        <v>0.579819459395587</v>
+        <v>0.5561151669858901</v>
       </c>
       <c r="G9">
-        <v>0.3000579681361657</v>
+        <v>0.2745354536962594</v>
       </c>
       <c r="H9">
-        <v>0.0002983069378370562</v>
+        <v>0.0002975615327891479</v>
       </c>
       <c r="I9">
-        <v>0.001426156344359164</v>
+        <v>0.001726628151712539</v>
       </c>
       <c r="J9">
-        <v>0.2600642710335492</v>
+        <v>0.2768956908244462</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.1137561592929934</v>
+        <v>0.09987426922552967</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.03643008670690406</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.1121108808531766</v>
       </c>
       <c r="O9">
-        <v>0.9040102170631812</v>
+        <v>0</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>1.129783321272853</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0.9161943747066061</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>1.066358952176458</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.727308384935782</v>
+        <v>3.717941261818737</v>
       </c>
       <c r="C10">
-        <v>0.9487224807105292</v>
+        <v>1.002670177714123</v>
       </c>
       <c r="D10">
-        <v>0.226454375787128</v>
+        <v>0.2325960578089763</v>
       </c>
       <c r="E10">
-        <v>0.1309625513690662</v>
+        <v>0.1307167593902676</v>
       </c>
       <c r="F10">
-        <v>0.6080656063160461</v>
+        <v>0.5739879518801416</v>
       </c>
       <c r="G10">
-        <v>0.3148041964465733</v>
+        <v>0.2996613698806456</v>
       </c>
       <c r="H10">
-        <v>0.001624203330926388</v>
+        <v>0.001536752614903936</v>
       </c>
       <c r="I10">
-        <v>0.003218537102478436</v>
+        <v>0.003426000086925285</v>
       </c>
       <c r="J10">
-        <v>0.2586348895271939</v>
+        <v>0.2564040507658731</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.1175645036166415</v>
+        <v>0.09077696827190529</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.03328352936348367</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.1149198251988608</v>
       </c>
       <c r="O10">
-        <v>1.059132230103117</v>
+        <v>0</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>1.158543344391887</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>1.07515895202409</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>1.068646136311685</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.052431673109254</v>
+        <v>4.042393218348764</v>
       </c>
       <c r="C11">
-        <v>1.037137509236516</v>
+        <v>1.081809080366611</v>
       </c>
       <c r="D11">
-        <v>0.1973030282723442</v>
+        <v>0.2044009926780461</v>
       </c>
       <c r="E11">
-        <v>0.09470069763595035</v>
+        <v>0.09444654431202082</v>
       </c>
       <c r="F11">
-        <v>0.5267265163764634</v>
+        <v>0.4894436726667024</v>
       </c>
       <c r="G11">
-        <v>0.2678572220659134</v>
+        <v>0.283274894419776</v>
       </c>
       <c r="H11">
-        <v>0.02017629094184059</v>
+        <v>0.02004512658629665</v>
       </c>
       <c r="I11">
-        <v>0.004433631982851516</v>
+        <v>0.004627423772427086</v>
       </c>
       <c r="J11">
-        <v>0.2305546838393084</v>
+        <v>0.2034745502484228</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.0838504241049165</v>
+        <v>0.08297640138063556</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.02594034610367135</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.08174665017911487</v>
       </c>
       <c r="O11">
-        <v>1.030508273864129</v>
+        <v>0</v>
       </c>
       <c r="P11">
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>1.000417089037668</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>1.044252994106074</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0.9021342095081479</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.207409105358693</v>
+        <v>4.198208436138771</v>
       </c>
       <c r="C12">
-        <v>1.076859194915585</v>
+        <v>1.110197154612081</v>
       </c>
       <c r="D12">
-        <v>0.1692999587805986</v>
+        <v>0.1759883508704974</v>
       </c>
       <c r="E12">
-        <v>0.07080474872856612</v>
+        <v>0.07039789626742277</v>
       </c>
       <c r="F12">
-        <v>0.458930143019181</v>
+        <v>0.424357916815957</v>
       </c>
       <c r="G12">
-        <v>0.2297099329987944</v>
+        <v>0.2584598589866332</v>
       </c>
       <c r="H12">
-        <v>0.05868764366357482</v>
+        <v>0.05855017505462001</v>
       </c>
       <c r="I12">
-        <v>0.004642078480943113</v>
+        <v>0.004790266330043202</v>
       </c>
       <c r="J12">
-        <v>0.2093018389904984</v>
+        <v>0.179604141217709</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.07229222522059375</v>
+        <v>0.08001024797591105</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.0217030666323792</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.0708644436466046</v>
       </c>
       <c r="O12">
-        <v>0.9722922651056436</v>
+        <v>0</v>
       </c>
       <c r="P12">
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>0.8751118460231453</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0.9833592363398935</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0.7838737197720604</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.237802764164712</v>
+        <v>4.230882849057252</v>
       </c>
       <c r="C13">
-        <v>1.087289139966799</v>
+        <v>1.107858202522948</v>
       </c>
       <c r="D13">
-        <v>0.1411498498715247</v>
+        <v>0.1461793374693485</v>
       </c>
       <c r="E13">
-        <v>0.05499609943541905</v>
+        <v>0.05439841653567346</v>
       </c>
       <c r="F13">
-        <v>0.3948911431071878</v>
+        <v>0.3685742031276078</v>
       </c>
       <c r="G13">
-        <v>0.1937442829687086</v>
+        <v>0.2196029827632699</v>
       </c>
       <c r="H13">
-        <v>0.1141378720286639</v>
+        <v>0.1140245653530627</v>
       </c>
       <c r="I13">
-        <v>0.004373443556762169</v>
+        <v>0.004545025350554788</v>
       </c>
       <c r="J13">
-        <v>0.1907809594970402</v>
+        <v>0.1724166726074792</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.07658269059442091</v>
+        <v>0.07928287331867967</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.01936976163853377</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.07582547703177411</v>
       </c>
       <c r="O13">
-        <v>0.8899329005814565</v>
+        <v>0</v>
       </c>
       <c r="P13">
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>0.7600555144891956</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0.8978006377758305</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0.6905270201343257</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.202282703638105</v>
+        <v>4.197606928108371</v>
       </c>
       <c r="C14">
-        <v>1.082600155884165</v>
+        <v>1.093540586805943</v>
       </c>
       <c r="D14">
-        <v>0.1218996619947035</v>
+        <v>0.1254118513148512</v>
       </c>
       <c r="E14">
-        <v>0.04874013307359193</v>
+        <v>0.04806138078738664</v>
       </c>
       <c r="F14">
-        <v>0.3523105852217441</v>
+        <v>0.333452517906629</v>
       </c>
       <c r="G14">
-        <v>0.1697626516423796</v>
+        <v>0.187818270080399</v>
       </c>
       <c r="H14">
-        <v>0.163237472189536</v>
+        <v>0.1631502733499559</v>
       </c>
       <c r="I14">
-        <v>0.004058828266365389</v>
+        <v>0.004289361390797275</v>
       </c>
       <c r="J14">
-        <v>0.179107361017337</v>
+        <v>0.1727131196227241</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.08889430190581393</v>
+        <v>0.07952801149092581</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.01869477099464301</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.08847923582708006</v>
       </c>
       <c r="O14">
-        <v>0.822265576130647</v>
+        <v>0</v>
       </c>
       <c r="P14">
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>0.6847065898207774</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0.8277071017061388</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0.6349045461790297</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.166280528558616</v>
+        <v>4.162443935032968</v>
       </c>
       <c r="C15">
-        <v>1.076838988656561</v>
+        <v>1.08513940381323</v>
       </c>
       <c r="D15">
-        <v>0.1170300679534506</v>
+        <v>0.1200108194350165</v>
       </c>
       <c r="E15">
-        <v>0.04784443541486372</v>
+        <v>0.04717515214577972</v>
       </c>
       <c r="F15">
-        <v>0.3418095182624867</v>
+        <v>0.3255838563140898</v>
       </c>
       <c r="G15">
-        <v>0.1637282689260005</v>
+        <v>0.1776710941716075</v>
       </c>
       <c r="H15">
-        <v>0.1756391724328097</v>
+        <v>0.1755637588317853</v>
       </c>
       <c r="I15">
-        <v>0.003991896247197424</v>
+        <v>0.004271578730524084</v>
       </c>
       <c r="J15">
-        <v>0.1765224438073645</v>
+        <v>0.1749510554879485</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.09294208198575049</v>
+        <v>0.07978949770431143</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.01881898440307483</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.09259165722048834</v>
       </c>
       <c r="O15">
-        <v>0.801105236334287</v>
+        <v>0</v>
       </c>
       <c r="P15">
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>0.6664638779585488</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0.8058365891643149</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0.6236701089702024</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.906080423419098</v>
+        <v>3.904719517117428</v>
       </c>
       <c r="C16">
-        <v>1.016918052758058</v>
+        <v>1.023007725686369</v>
       </c>
       <c r="D16">
-        <v>0.1133873529026843</v>
+        <v>0.1148717202107505</v>
       </c>
       <c r="E16">
-        <v>0.04791971329169153</v>
+        <v>0.04746307097175184</v>
       </c>
       <c r="F16">
-        <v>0.3422144486481713</v>
+        <v>0.3333428785539425</v>
       </c>
       <c r="G16">
-        <v>0.1638711272853115</v>
+        <v>0.1596512341726921</v>
       </c>
       <c r="H16">
-        <v>0.1623790552289819</v>
+        <v>0.162351066995754</v>
       </c>
       <c r="I16">
-        <v>0.003272070921930492</v>
+        <v>0.003677540680555147</v>
       </c>
       <c r="J16">
-        <v>0.1802930136265957</v>
+        <v>0.1975583970021582</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.09009512866088798</v>
+        <v>0.0816731567411737</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.02126187333760221</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.08982983214196238</v>
       </c>
       <c r="O16">
-        <v>0.7539317819145452</v>
+        <v>0</v>
       </c>
       <c r="P16">
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>0.6744558528747007</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0.7576111922656139</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0.6512227608564416</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.725997697169419</v>
+        <v>3.725213176720843</v>
       </c>
       <c r="C17">
-        <v>0.9738219903549066</v>
+        <v>0.9828859121734581</v>
       </c>
       <c r="D17">
-        <v>0.1205294805464234</v>
+        <v>0.1216948155423836</v>
       </c>
       <c r="E17">
-        <v>0.05050628227677612</v>
+        <v>0.05017853696921337</v>
       </c>
       <c r="F17">
-        <v>0.364657810281642</v>
+        <v>0.3573128464663426</v>
       </c>
       <c r="G17">
-        <v>0.1764857030239639</v>
+        <v>0.1638961124251992</v>
       </c>
       <c r="H17">
-        <v>0.1243466189548599</v>
+        <v>0.1243348901934382</v>
       </c>
       <c r="I17">
-        <v>0.002942490016379473</v>
+        <v>0.003402533299560417</v>
       </c>
       <c r="J17">
-        <v>0.1893212882490687</v>
+        <v>0.2151124819358969</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.0799010102944564</v>
+        <v>0.08349686001817452</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.0233773453222812</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.079652757347489</v>
       </c>
       <c r="O17">
-        <v>0.7533280766043333</v>
+        <v>0</v>
       </c>
       <c r="P17">
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>0.7199796136747949</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0.7574719506626053</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0.7007611197362564</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.595454247981195</v>
+        <v>3.593859075593741</v>
       </c>
       <c r="C18">
-        <v>0.9367714120463688</v>
+        <v>0.9540432300033785</v>
       </c>
       <c r="D18">
-        <v>0.1387321643974104</v>
+        <v>0.1402589483891319</v>
       </c>
       <c r="E18">
-        <v>0.05970098571430693</v>
+        <v>0.05943267269669406</v>
       </c>
       <c r="F18">
-        <v>0.4119560719985742</v>
+        <v>0.40246050145889</v>
       </c>
       <c r="G18">
-        <v>0.2034116503206533</v>
+        <v>0.1849659509348314</v>
       </c>
       <c r="H18">
-        <v>0.0714807363494856</v>
+        <v>0.07147322759001895</v>
       </c>
       <c r="I18">
-        <v>0.002585409675440076</v>
+        <v>0.00301628051037639</v>
       </c>
       <c r="J18">
-        <v>0.2049115591371091</v>
+        <v>0.2335275108642563</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.07064105978152568</v>
+        <v>0.08596673962385504</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.02580240324588345</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.07026195589610751</v>
       </c>
       <c r="O18">
-        <v>0.7924797695228918</v>
+        <v>0</v>
       </c>
       <c r="P18">
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>0.8096438839605327</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0.7984853980919056</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0.7846227373794079</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.513651051406839</v>
+        <v>3.510338970598298</v>
       </c>
       <c r="C19">
-        <v>0.9158043941860115</v>
+        <v>0.9446170165196293</v>
       </c>
       <c r="D19">
-        <v>0.1668087077539866</v>
+        <v>0.1691993734587811</v>
       </c>
       <c r="E19">
-        <v>0.07975648628093523</v>
+        <v>0.07950005202508237</v>
       </c>
       <c r="F19">
-        <v>0.4772049057415018</v>
+        <v>0.4628653957534539</v>
       </c>
       <c r="G19">
-        <v>0.2400506818395485</v>
+        <v>0.2164679204096771</v>
       </c>
       <c r="H19">
-        <v>0.02641691637659704</v>
+        <v>0.02640653797645598</v>
       </c>
       <c r="I19">
-        <v>0.002730545157104913</v>
+        <v>0.003185974383714374</v>
       </c>
       <c r="J19">
-        <v>0.2245123361745343</v>
+        <v>0.2523629296382737</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.0752375828107974</v>
+        <v>0.08904183389850218</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.02870108636502078</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.07443321560057825</v>
       </c>
       <c r="O19">
-        <v>0.8638229461366222</v>
+        <v>0</v>
       </c>
       <c r="P19">
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>0.9283518037833574</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0.8727237685922162</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0.8904917824950473</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.572377335223337</v>
+        <v>3.564772022402451</v>
       </c>
       <c r="C20">
-        <v>0.9253010142423079</v>
+        <v>0.9754353897817509</v>
       </c>
       <c r="D20">
-        <v>0.2209004376425838</v>
+        <v>0.2257933739031444</v>
       </c>
       <c r="E20">
-        <v>0.1285888443753898</v>
+        <v>0.1283128152650157</v>
       </c>
       <c r="F20">
-        <v>0.5946739432711468</v>
+        <v>0.5668955422347679</v>
       </c>
       <c r="G20">
-        <v>0.3060808755976154</v>
+        <v>0.2807103291348056</v>
       </c>
       <c r="H20">
-        <v>0.001169566463427696</v>
+        <v>0.001119518828731181</v>
       </c>
       <c r="I20">
-        <v>0.003382422201518409</v>
+        <v>0.003800072730556714</v>
       </c>
       <c r="J20">
-        <v>0.2564561865433674</v>
+        <v>0.2705263459949308</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.1159605617473325</v>
+        <v>0.09259524727640756</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.03350520468974771</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.1137246155534513</v>
       </c>
       <c r="O20">
-        <v>1.020973491910802</v>
+        <v>0</v>
       </c>
       <c r="P20">
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>1.135362367429195</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>1.035771017370152</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>1.062224277214028</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.009506041515294</v>
+        <v>3.996044234875114</v>
       </c>
       <c r="C21">
-        <v>1.026084703686934</v>
+        <v>1.087363862060897</v>
       </c>
       <c r="D21">
-        <v>0.2465756864437054</v>
+        <v>0.2571458131557591</v>
       </c>
       <c r="E21">
-        <v>0.1430649091989089</v>
+        <v>0.1431662708817498</v>
       </c>
       <c r="F21">
-        <v>0.6357082432761132</v>
+        <v>0.5815978505383512</v>
       </c>
       <c r="G21">
-        <v>0.3289677387325867</v>
+        <v>0.3542259687412042</v>
       </c>
       <c r="H21">
-        <v>0.00248724966959768</v>
+        <v>0.002282466173943343</v>
       </c>
       <c r="I21">
-        <v>0.005068653527744438</v>
+        <v>0.005241574228923795</v>
       </c>
       <c r="J21">
-        <v>0.2613750578523479</v>
+        <v>0.2099228276068885</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.1275283944957977</v>
+        <v>0.08615013367696456</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.03132818397740955</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.1236508929051681</v>
       </c>
       <c r="O21">
-        <v>1.15770445572582</v>
+        <v>0</v>
       </c>
       <c r="P21">
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>1.194551124940205</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>1.176702368227396</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>1.052181514517471</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.299615492778571</v>
+        <v>4.282164193438177</v>
       </c>
       <c r="C22">
-        <v>1.088224417805236</v>
+        <v>1.155687413335613</v>
       </c>
       <c r="D22">
-        <v>0.2606002259841205</v>
+        <v>0.2752678548249747</v>
       </c>
       <c r="E22">
-        <v>0.1498401167328858</v>
+        <v>0.1502746063042935</v>
       </c>
       <c r="F22">
-        <v>0.6598311821424687</v>
+        <v>0.5872515687006725</v>
       </c>
       <c r="G22">
-        <v>0.3431880277320118</v>
+        <v>0.4092046366148452</v>
       </c>
       <c r="H22">
-        <v>0.003650712303413628</v>
+        <v>0.003305361273958862</v>
       </c>
       <c r="I22">
-        <v>0.006143926003850275</v>
+        <v>0.006023394960275041</v>
       </c>
       <c r="J22">
-        <v>0.2642816349650587</v>
+        <v>0.1769945996718292</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.1323950541307894</v>
+        <v>0.08231750289696471</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.03009473092666504</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.1274686949877264</v>
       </c>
       <c r="O22">
-        <v>1.240088347263139</v>
+        <v>0</v>
       </c>
       <c r="P22">
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>1.231016702390434</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>1.261671755153813</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>1.040189512895111</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.145591912563816</v>
+        <v>4.130385129681031</v>
       </c>
       <c r="C23">
-        <v>1.05011844466091</v>
+        <v>1.115006135930741</v>
       </c>
       <c r="D23">
-        <v>0.252757351251546</v>
+        <v>0.2646747036615693</v>
       </c>
       <c r="E23">
-        <v>0.1462277089485227</v>
+        <v>0.1463972221128174</v>
       </c>
       <c r="F23">
-        <v>0.6488918354775564</v>
+        <v>0.5882914223626869</v>
       </c>
       <c r="G23">
-        <v>0.3372064361736875</v>
+        <v>0.3745675939569111</v>
       </c>
       <c r="H23">
-        <v>0.003007208606889855</v>
+        <v>0.002745760073272097</v>
       </c>
       <c r="I23">
-        <v>0.005269099637098762</v>
+        <v>0.005255715740243083</v>
       </c>
       <c r="J23">
-        <v>0.2635645781617342</v>
+        <v>0.1992814043955491</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.1299409881643818</v>
+        <v>0.08463037218418989</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.03123931286976145</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.1256508615828587</v>
       </c>
       <c r="O23">
-        <v>1.194913178245955</v>
+        <v>0</v>
       </c>
       <c r="P23">
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>1.216710244244069</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>1.215092474172295</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>1.057178442528453</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.561109496415156</v>
+        <v>3.553316584202435</v>
       </c>
       <c r="C24">
-        <v>0.9145813020160176</v>
+        <v>0.9657998519112994</v>
       </c>
       <c r="D24">
-        <v>0.2237881425771775</v>
+        <v>0.2287925434806652</v>
       </c>
       <c r="E24">
-        <v>0.1325795248224289</v>
+        <v>0.1323043617826265</v>
       </c>
       <c r="F24">
-        <v>0.6058208064937673</v>
+        <v>0.5772729231299181</v>
       </c>
       <c r="G24">
-        <v>0.3132106533869319</v>
+        <v>0.2867117839882667</v>
       </c>
       <c r="H24">
-        <v>0.001102954860720984</v>
+        <v>0.001051858353856683</v>
       </c>
       <c r="I24">
-        <v>0.002925114897743164</v>
+        <v>0.003243589707111916</v>
       </c>
       <c r="J24">
-        <v>0.2602377409059073</v>
+        <v>0.2744189277467086</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.1203957843533594</v>
+        <v>0.09354150368427749</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.03445855493368555</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.1180563235087355</v>
       </c>
       <c r="O24">
-        <v>1.026160333255646</v>
+        <v>0</v>
       </c>
       <c r="P24">
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>1.158390970209922</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>1.041346782288493</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>1.083106422047081</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.930562910919377</v>
+        <v>2.92850910161502</v>
       </c>
       <c r="C25">
-        <v>0.7696335885839005</v>
+        <v>0.7989632753036346</v>
       </c>
       <c r="D25">
-        <v>0.1928260503512291</v>
+        <v>0.1964455782721615</v>
       </c>
       <c r="E25">
-        <v>0.1179166571598067</v>
+        <v>0.1180449807003718</v>
       </c>
       <c r="F25">
-        <v>0.562575952124881</v>
+        <v>0.542565264901711</v>
       </c>
       <c r="G25">
-        <v>0.2900152055050143</v>
+        <v>0.2627588980142761</v>
       </c>
       <c r="H25">
-        <v>7.917225574449738E-05</v>
+        <v>8.653214292708711E-05</v>
       </c>
       <c r="I25">
-        <v>0.001436828429069337</v>
+        <v>0.001817413122368272</v>
       </c>
       <c r="J25">
-        <v>0.2582591899210982</v>
+        <v>0.2802824208627115</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.1100365218011525</v>
+        <v>0.102731799578204</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.03733267507392313</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.1088018265776753</v>
       </c>
       <c r="O25">
-        <v>0.8447354866394647</v>
+        <v>0</v>
       </c>
       <c r="P25">
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>1.10452450056161</v>
+        <v>0.8552778309320601</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>1.050555658308156</v>
       </c>
     </row>
   </sheetData>
